--- a/src/Input_Files/characters/italia_characters.xlsx
+++ b/src/Input_Files/characters/italia_characters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\italy_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE923577-F92B-41C1-ACCF-C473156003EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFD5C35-9C47-48DD-8F81-3FE29B49D287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{E5B2FA9E-FCEB-4F64-AA77-9CDFE63EBBF9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>RGB</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>(192, 72, 3)</t>
+  </si>
+  <si>
+    <t>Primary Title</t>
+  </si>
+  <si>
+    <t>realm_succession_laws</t>
   </si>
 </sst>
 </file>
@@ -259,7 +265,47 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -670,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400C5842-DB98-492E-993D-80D39F62EB82}">
-  <dimension ref="A1:BD161"/>
+  <dimension ref="A1:BF161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -686,196 +732,204 @@
     <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="5.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:58" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -886,126 +940,126 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="D4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="D5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="D6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="D7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="D8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="D9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="D10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="D11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="D15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="D16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="D18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="D19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="D20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="D21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="D22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="D24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="D25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1013,7 +1067,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1021,7 +1075,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1029,7 +1083,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1037,7 +1091,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1045,7 +1099,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1053,7 +1107,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1189,7 +1243,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1197,7 +1251,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1205,7 +1259,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1213,7 +1267,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -1221,7 +1275,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1229,16 +1283,16 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1248,7 +1302,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1256,7 +1310,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1264,7 +1318,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1273,19 +1327,19 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="K58" s="1"/>
       <c r="M58" s="1"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="L59" s="1"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1294,9 +1348,9 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="M60" s="1"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1306,7 +1360,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1316,7 +1370,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1325,9 +1379,9 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="M63" s="1"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1335,9 +1389,9 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1346,9 +1400,9 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="M65" s="1"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1358,7 +1412,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1367,9 +1421,9 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="L67" s="1"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1378,9 +1432,9 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="M68" s="1"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -1389,9 +1443,9 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="L69" s="1"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1401,7 +1455,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1409,9 +1463,9 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="L71" s="1"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1420,7 +1474,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1429,9 +1483,9 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="L73" s="1"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1440,7 +1494,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1450,7 +1504,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1458,10 +1512,10 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="N76" s="1"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L76" s="1"/>
+      <c r="P76" s="1"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1471,7 +1525,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -1479,9 +1533,9 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="L78" s="1"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1491,7 +1545,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1501,7 +1555,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1511,7 +1565,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1521,7 +1575,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1530,9 +1584,9 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="M83" s="1"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O83" s="1"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1541,7 +1595,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -1549,9 +1603,9 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="L85" s="1"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -1559,16 +1613,16 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="L86" s="1"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1577,9 +1631,9 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-      <c r="L88" s="1"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1589,7 +1643,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1599,7 +1653,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1609,7 +1663,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1618,10 +1672,10 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="J92" s="1"/>
       <c r="L92" s="1"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1631,7 +1685,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -1639,9 +1693,9 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="K94" s="1"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1651,7 +1705,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1661,7 +1715,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1671,7 +1725,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1680,10 +1734,10 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="L98" s="1"/>
       <c r="N98" s="1"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P98" s="1"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1692,9 +1746,9 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
-      <c r="L99" s="1"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1703,9 +1757,9 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="L100" s="1"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1715,7 +1769,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1725,7 +1779,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1734,10 +1788,10 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1747,7 +1801,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1756,9 +1810,9 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="J105" s="1"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1767,10 +1821,10 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="J106" s="1"/>
       <c r="L106" s="1"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1780,7 +1834,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1790,7 +1844,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1800,7 +1854,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1810,7 +1864,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1820,7 +1874,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1829,9 +1883,9 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
-      <c r="L112" s="1"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -1840,7 +1894,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1850,19 +1904,19 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1871,9 +1925,9 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
-      <c r="K117" s="1"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1882,9 +1936,9 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
-      <c r="L118" s="1"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N118" s="1"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1893,10 +1947,10 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -1905,7 +1959,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1914,9 +1968,9 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
-      <c r="K121" s="1"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1925,9 +1979,9 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
-      <c r="K122" s="1"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -1936,7 +1990,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1946,7 +2000,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1956,7 +2010,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1966,7 +2020,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1976,7 +2030,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -1986,7 +2040,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -1996,7 +2050,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2006,7 +2060,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2016,7 +2070,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2026,7 +2080,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -2035,7 +2089,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -2045,7 +2099,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2055,7 +2109,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -2064,7 +2118,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2074,7 +2128,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2083,9 +2137,9 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
-      <c r="M138" s="1"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O138" s="1"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -2095,7 +2149,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -2105,7 +2159,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -2114,9 +2168,9 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
-      <c r="J141" s="1"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L141" s="1"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -2126,7 +2180,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -2136,7 +2190,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -2309,35 +2363,45 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B152 B162:B1048576">
+  <conditionalFormatting sqref="B2:B152 B162:B1048576">
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A152 A162:A1048576">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B153:B155">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A153:A155">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B156">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A152 A162:A1048576">
+  <conditionalFormatting sqref="A156">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B153:B155">
+  <conditionalFormatting sqref="B157">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A153:A155">
+  <conditionalFormatting sqref="A157">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B156">
+  <conditionalFormatting sqref="B158:B161">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A156">
+  <conditionalFormatting sqref="A158:A161">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B157">
+  <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A157">
+  <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B158:B161">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A158:A161">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
